--- a/ESPN sports website/IPL/Chennai Super Kings/Dwayne Bravo.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/Dwayne Bravo.xlsx
@@ -445,7 +445,7 @@
         <v>Dwayne Bravo</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>100.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 03, 2022</v>
+        <v>March 31, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -530,16 +530,16 @@
         <v>100.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>March 31, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>Dwayne Bravo</v>
       </c>
       <c r="C6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>100.00</v>
+        <v>0.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>April 21, 2022</v>
+        <v>April 03, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="7">
